--- a/end/Dormitory/学生宿舍安排导入模板.xlsx
+++ b/end/Dormitory/学生宿舍安排导入模板.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanted\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D036758-292F-465C-97D8-B7AD17B16D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC3DD9-D288-4AB6-BAD7-9EB3B5779AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,12 +54,15 @@
     <t xml:space="preserve"> 所在宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>严格按照系统上存入的数据名称来填写</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +113,29 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,11 +143,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +266,33 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +578,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -594,7 +711,13 @@
       <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="1:17" ht="16.5">
       <c r="A9" s="6"/>
@@ -605,7 +728,11 @@
       <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:17" ht="16.5">
       <c r="A10" s="6"/>
@@ -616,7 +743,11 @@
       <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:17" ht="16.5">
       <c r="A11" s="6"/>
@@ -627,7 +758,11 @@
       <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="6"/>
@@ -1081,6 +1216,9 @@
       <c r="I52" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:M11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>

--- a/end/Dormitory/学生宿舍安排导入模板.xlsx
+++ b/end/Dormitory/学生宿舍安排导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\shandong\aqschool\end\Dormitory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DC3DD9-D288-4AB6-BAD7-9EB3B5779AD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99412FF5-1A15-486E-B4F6-A1CBC7117F0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,9 +53,6 @@
   <si>
     <t xml:space="preserve"> 所在宿舍</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>严格按照系统上存入的数据名称来填写</t>
   </si>
 </sst>
 </file>
@@ -121,21 +118,15 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -143,91 +134,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,32 +179,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +465,7 @@
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -702,7 +589,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:17" ht="16.5">
+    <row r="8" spans="1:17" ht="16.5" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="1"/>
@@ -711,15 +598,13 @@
       <c r="F8" s="12"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="1:17" ht="16.5">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="12"/>
       <c r="C9" s="1"/>
@@ -728,13 +613,13 @@
       <c r="F9" s="12"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="1:17" ht="16.5">
+      <c r="M9" s="16"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="12"/>
       <c r="C10" s="2"/>
@@ -743,13 +628,13 @@
       <c r="F10" s="13"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="16"/>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="21"/>
-    </row>
-    <row r="11" spans="1:17" ht="16.5">
+      <c r="M10" s="16"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="12"/>
       <c r="C11" s="2"/>
@@ -758,11 +643,11 @@
       <c r="F11" s="13"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="1:17" ht="16.5">
       <c r="A12" s="6"/>
@@ -1216,9 +1101,6 @@
       <c r="I52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I8:M11"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
